--- a/仙人/config_dev/Equip.xlsx
+++ b/仙人/config_dev/Equip.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16511" windowHeight="8375"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="105">
   <si>
     <t>sID</t>
   </si>
@@ -69,7 +69,7 @@
     <t>None</t>
   </si>
   <si>
-    <t>physical|10</t>
+    <t>Physical|10</t>
   </si>
   <si>
     <t>clothes</t>
@@ -97,6 +97,240 @@
   </si>
   <si>
     <t>1|5</t>
+  </si>
+  <si>
+    <t>eq003</t>
+  </si>
+  <si>
+    <t>修炼服</t>
+  </si>
+  <si>
+    <t>eq004</t>
+  </si>
+  <si>
+    <t>蓝水吊坠</t>
+  </si>
+  <si>
+    <t>ornament1</t>
+  </si>
+  <si>
+    <t>any|3</t>
+  </si>
+  <si>
+    <t>eq005</t>
+  </si>
+  <si>
+    <t>烈火吊坠</t>
+  </si>
+  <si>
+    <t>Physical|11</t>
+  </si>
+  <si>
+    <t>eq006</t>
+  </si>
+  <si>
+    <t>冥土吊坠</t>
+  </si>
+  <si>
+    <t>Physical|12</t>
+  </si>
+  <si>
+    <t>eq007</t>
+  </si>
+  <si>
+    <t>试炼长刀</t>
+  </si>
+  <si>
+    <t>Physical|13</t>
+  </si>
+  <si>
+    <t>eq008</t>
+  </si>
+  <si>
+    <t>木灵戒指</t>
+  </si>
+  <si>
+    <t>Physical|14</t>
+  </si>
+  <si>
+    <t>ornament2</t>
+  </si>
+  <si>
+    <t>eq009</t>
+  </si>
+  <si>
+    <t>乾坤镜</t>
+  </si>
+  <si>
+    <t>Physical|15</t>
+  </si>
+  <si>
+    <t>ornament3</t>
+  </si>
+  <si>
+    <t>eq010</t>
+  </si>
+  <si>
+    <t>锁鬼木魄</t>
+  </si>
+  <si>
+    <t>Physical|16</t>
+  </si>
+  <si>
+    <t>eq011</t>
+  </si>
+  <si>
+    <t>杀金令</t>
+  </si>
+  <si>
+    <t>Physical|17</t>
+  </si>
+  <si>
+    <t>eq012</t>
+  </si>
+  <si>
+    <t>幽璃佩</t>
+  </si>
+  <si>
+    <t>Physical|18</t>
+  </si>
+  <si>
+    <t>eq013</t>
+  </si>
+  <si>
+    <t>儒道令</t>
+  </si>
+  <si>
+    <t>Physical|19</t>
+  </si>
+  <si>
+    <t>eq014</t>
+  </si>
+  <si>
+    <t>石琴</t>
+  </si>
+  <si>
+    <t>Physical|20</t>
+  </si>
+  <si>
+    <t>eq015</t>
+  </si>
+  <si>
+    <t>血蚀刀</t>
+  </si>
+  <si>
+    <t>Physical|21</t>
+  </si>
+  <si>
+    <t>eq016</t>
+  </si>
+  <si>
+    <t>环铁双剑</t>
+  </si>
+  <si>
+    <t>Physical|22</t>
+  </si>
+  <si>
+    <t>eq017</t>
+  </si>
+  <si>
+    <t>九天戟</t>
+  </si>
+  <si>
+    <t>Physical|23</t>
+  </si>
+  <si>
+    <t>eq018</t>
+  </si>
+  <si>
+    <t>青峰刀</t>
+  </si>
+  <si>
+    <t>Physical|24</t>
+  </si>
+  <si>
+    <t>eq019</t>
+  </si>
+  <si>
+    <t>匣里剑</t>
+  </si>
+  <si>
+    <t>Physical|25</t>
+  </si>
+  <si>
+    <t>eq020</t>
+  </si>
+  <si>
+    <t>碧波戒指</t>
+  </si>
+  <si>
+    <t>Physical|26</t>
+  </si>
+  <si>
+    <t>eq021</t>
+  </si>
+  <si>
+    <t>锁龙吊坠</t>
+  </si>
+  <si>
+    <t>Physical|27</t>
+  </si>
+  <si>
+    <t>eq022</t>
+  </si>
+  <si>
+    <t>玉如意</t>
+  </si>
+  <si>
+    <t>Physical|28</t>
+  </si>
+  <si>
+    <t>eq023</t>
+  </si>
+  <si>
+    <t>邪眼</t>
+  </si>
+  <si>
+    <t>Physical|29</t>
+  </si>
+  <si>
+    <t>helmet</t>
+  </si>
+  <si>
+    <t>eq024</t>
+  </si>
+  <si>
+    <t>修罗面具</t>
+  </si>
+  <si>
+    <t>Physical|30</t>
+  </si>
+  <si>
+    <t>eq025</t>
+  </si>
+  <si>
+    <t>岩息面具</t>
+  </si>
+  <si>
+    <t>Physical|31</t>
+  </si>
+  <si>
+    <t>eq026</t>
+  </si>
+  <si>
+    <t>斗士面具</t>
+  </si>
+  <si>
+    <t>Physical|32</t>
+  </si>
+  <si>
+    <t>eq027</t>
+  </si>
+  <si>
+    <t>试炼长剑</t>
+  </si>
+  <si>
+    <t>Physical|33</t>
   </si>
 </sst>
 </file>
@@ -105,11 +339,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,9 +352,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,10 +388,18 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -150,7 +411,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,25 +448,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -194,17 +464,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -224,39 +494,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,55 +511,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,127 +679,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,24 +720,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -513,17 +735,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,17 +753,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,6 +802,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -585,10 +825,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -597,133 +837,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -734,8 +974,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1085,13 +1325,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="11.4444444444444" customWidth="1"/>
     <col min="3" max="3" width="34.8888888888889" customWidth="1"/>
@@ -1127,22 +1367,22 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1168,22 +1408,22 @@
       <c r="G2" s="1">
         <v>2</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>200</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>10</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>20</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1191,41 +1431,1066 @@
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="2">
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="1">
         <v>30</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="1">
         <v>60</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="1" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="1">
+        <v>50</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/仙人/config_dev/Equip.xlsx
+++ b/仙人/config_dev/Equip.xlsx
@@ -63,7 +63,7 @@
     <t>冰影披风</t>
   </si>
   <si>
-    <t>learnAtkSkill|equipSkill|atk004</t>
+    <t>atk004</t>
   </si>
   <si>
     <t>None</t>
@@ -338,10 +338,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -358,22 +358,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -387,17 +381,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -411,22 +419,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -442,7 +435,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -456,23 +449,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -486,17 +465,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,187 +511,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,6 +721,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -731,48 +746,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -803,6 +776,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -817,6 +799,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -825,10 +825,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -837,133 +837,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1328,7 +1328,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
